--- a/Analysis/Mechanical Analysis.xlsx
+++ b/Analysis/Mechanical Analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\Sid\Projects\Smart Cart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\Sid\Projects\Smart Cart\smart-cart\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>System weight</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Wheel radius</t>
   </si>
   <si>
-    <t>Desired operating velocity</t>
-  </si>
-  <si>
     <t>Desired acceleration</t>
   </si>
   <si>
@@ -83,143 +80,179 @@
     <t>Desired System Parameters</t>
   </si>
   <si>
-    <t>Rated motor output torque</t>
-  </si>
-  <si>
-    <t>Rated motor output speed</t>
-  </si>
-  <si>
-    <t>Rated motor output power</t>
-  </si>
-  <si>
     <t>Driveshaft Bending Analysis, Additional Parameters</t>
   </si>
   <si>
     <t>Desired Performance Characteristics</t>
   </si>
   <si>
-    <t>Off-the-Shelf Performance Characteristics</t>
-  </si>
-  <si>
-    <t>Supply current/motor</t>
+    <t>Input gear radius</t>
+  </si>
+  <si>
+    <t>Output gear radius</t>
+  </si>
+  <si>
+    <t>Gear Tooth Stress Analysis, Additional Parameters</t>
+  </si>
+  <si>
+    <t>Gear efficiency</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Output Lewis form factor, Y</t>
+  </si>
+  <si>
+    <t>Input yield strength</t>
+  </si>
+  <si>
+    <t>Input gear tooth stress</t>
+  </si>
+  <si>
+    <t>Output gear tooth stress</t>
+  </si>
+  <si>
+    <t>Output gear tooth safety factor</t>
+  </si>
+  <si>
+    <t>Input gear tooth safety factor</t>
+  </si>
+  <si>
+    <t>Input width, b</t>
+  </si>
+  <si>
+    <t>Input Lewis form factor, Y</t>
+  </si>
+  <si>
+    <t>Output width, b</t>
+  </si>
+  <si>
+    <t>Output yield strength</t>
+  </si>
+  <si>
+    <t>Gear Tooth Stress Analysis Results</t>
+  </si>
+  <si>
+    <t>Shaft bending safety factor</t>
+  </si>
+  <si>
+    <t>Shaft bending stress</t>
+  </si>
+  <si>
+    <t>Driveshaft Bending Stress Analysis Results</t>
+  </si>
+  <si>
+    <t>Static friction coefficient</t>
+  </si>
+  <si>
+    <t>Wheel torque</t>
+  </si>
+  <si>
+    <t>Wheel angular velocity</t>
+  </si>
+  <si>
+    <t>Max wheel torque before slip</t>
+  </si>
+  <si>
+    <t>Wheel output power</t>
+  </si>
+  <si>
+    <t>Motor output power</t>
+  </si>
+  <si>
+    <t>Motor input power</t>
+  </si>
+  <si>
+    <t>Cantilevered length</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Yield strength</t>
+  </si>
+  <si>
+    <t>Tangential force, F_t</t>
+  </si>
+  <si>
+    <t>ksi</t>
+  </si>
+  <si>
+    <t>Cart linear velocity</t>
+  </si>
+  <si>
+    <t>Desired cart linear velocity</t>
+  </si>
+  <si>
+    <t>Target angular velocity</t>
+  </si>
+  <si>
+    <t>Target motor output power</t>
+  </si>
+  <si>
+    <t>Off-the-shelf wheel torque</t>
+  </si>
+  <si>
+    <t>Off-the-shelf wheel angular velocity</t>
+  </si>
+  <si>
+    <t>Target Motor Characteristics, Off-the-Shelf Gears</t>
+  </si>
+  <si>
+    <t>Off-the-Shelf Gear Characteristics</t>
+  </si>
+  <si>
+    <t>System Performance, Off-the-Shelf Motor</t>
+  </si>
+  <si>
+    <t>Motor-driven gear ratio</t>
+  </si>
+  <si>
+    <t>INPUTS</t>
+  </si>
+  <si>
+    <t>OUTPUTS</t>
+  </si>
+  <si>
+    <t>Off-the-shelf motor output power</t>
+  </si>
+  <si>
+    <t>Motor output torque</t>
+  </si>
+  <si>
+    <t>Required motor torque</t>
+  </si>
+  <si>
+    <t>Motor supply current</t>
+  </si>
+  <si>
+    <t>Motor Characteristics</t>
+  </si>
+  <si>
+    <t>Motor output speed</t>
+  </si>
+  <si>
+    <t>clicks/second</t>
+  </si>
+  <si>
+    <t>Support count</t>
+  </si>
+  <si>
+    <t>Motor count</t>
   </si>
   <si>
     <t>Gear ratio</t>
-  </si>
-  <si>
-    <t>Input gear radius</t>
-  </si>
-  <si>
-    <t>Output gear radius</t>
-  </si>
-  <si>
-    <t>Off-the-shelf gear ratio</t>
-  </si>
-  <si>
-    <t>Cart speed</t>
-  </si>
-  <si>
-    <t>Gear Tooth Stress Analysis, Additional Parameters</t>
-  </si>
-  <si>
-    <t>Gear efficiency</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Output Lewis form factor, Y</t>
-  </si>
-  <si>
-    <t>Input yield strength</t>
-  </si>
-  <si>
-    <t>Input gear tooth stress</t>
-  </si>
-  <si>
-    <t>Output gear tooth stress</t>
-  </si>
-  <si>
-    <t>Output gear tooth safety factor</t>
-  </si>
-  <si>
-    <t>Input gear tooth safety factor</t>
-  </si>
-  <si>
-    <t>Input width, b</t>
-  </si>
-  <si>
-    <t>Input Lewis form factor, Y</t>
-  </si>
-  <si>
-    <t>Output width, b</t>
-  </si>
-  <si>
-    <t>Output yield strength</t>
-  </si>
-  <si>
-    <t>Gear Tooth Stress Analysis Results</t>
-  </si>
-  <si>
-    <t>Number of base supports</t>
-  </si>
-  <si>
-    <t>Off-the-Shelf Component Parameters</t>
-  </si>
-  <si>
-    <t>Shaft bending safety factor</t>
-  </si>
-  <si>
-    <t>Shaft bending stress</t>
-  </si>
-  <si>
-    <t>Driveshaft Bending Stress Analysis Results</t>
-  </si>
-  <si>
-    <t>Static friction coefficient</t>
-  </si>
-  <si>
-    <t>Wheel torque</t>
-  </si>
-  <si>
-    <t>Wheel angular velocity</t>
-  </si>
-  <si>
-    <t>Max wheel torque before slip</t>
-  </si>
-  <si>
-    <t>Wheel output power</t>
-  </si>
-  <si>
-    <t>Motor output power</t>
-  </si>
-  <si>
-    <t>Motor input power</t>
-  </si>
-  <si>
-    <t>Cantilevered length</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Yield strength</t>
-  </si>
-  <si>
-    <t>Tangential force, F_t</t>
-  </si>
-  <si>
-    <t>ksi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +262,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -256,18 +298,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -291,15 +340,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>313756</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104206</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -308,8 +357,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7258050" y="3676652"/>
-          <a:ext cx="10172131" cy="3543298"/>
+          <a:off x="7486650" y="4419602"/>
+          <a:ext cx="10419781" cy="3924298"/>
           <a:chOff x="3762375" y="3616803"/>
           <a:chExt cx="10038781" cy="4012221"/>
         </a:xfrm>
@@ -652,534 +701,618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <f>A2*A3*(SIN(RADIANS(A7)) + (A6/32.2))/(A8*A4)</f>
-        <v>0.95392866297026524</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <f>E2*16</f>
-        <v>15.262858607524244</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <f>(E8*0.0070615518333333)*(E10*0.104719755)</f>
+        <v>4.5673305372248256</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f>A10*(A2/3)*A3</f>
-        <v>20.000000000000004</v>
+        <f>E3/A14</f>
+        <v>6.5247579103211795</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1">
-        <f>A5*12/A3</f>
-        <v>20</v>
+        <f>E4/A20</f>
+        <v>21.749193034403934</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <f>A6*(A3/3)*A4</f>
+        <v>20.000000000000004</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2">
-        <f>(E5/(2*PI()))*60</f>
-        <v>190.98593171027443</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1">
-        <f>(E3*0.0070615518333333)*(E6*0.104719755)</f>
-        <v>2.1555893411742755</v>
+        <f>A3*A4*(SIN(RADIANS(A9)) + (A8/32.2))/(A20*A5)</f>
+        <v>2.0212140733376791</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.6</v>
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1">
-        <f>E7/A18</f>
-        <v>3.0794133445346796</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <f>E7*16</f>
+        <v>32.339425173402866</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>12</v>
+        <v>0.25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <f>E8/A8</f>
-        <v>5.1323555742244666</v>
+        <f>A7*12/A4</f>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.4</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="1">
-        <f>E9/A9</f>
-        <v>0.42769629785203889</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="1">
-        <f>A15/E6</f>
-        <v>9.948376736367677E-2</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E10" s="2">
+        <f>(E9/(2*PI()))*60</f>
+        <v>190.98593171027443</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>208</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1">
-        <f>(A14*0.0070615518333333)*(A15*0.104719755)</f>
-        <v>2.9224406806863459</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
+        <f>A16/A15</f>
+        <v>1.18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="1">
-        <f>A17/A16</f>
-        <v>0.1111111111111111</v>
+        <f>E8/(E14*A14)</f>
+        <v>39.151846456904195</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2.25</v>
+        <v>1.18</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E10*E14</f>
+        <v>225.36339941812381</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f>(E15*0.0070615518333333)*(E16*0.104719755)</f>
+        <v>6.5247579103211795</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="1">
+        <f>E21*18.75*64/60</f>
+        <v>4508.5188618333686</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <f>E15</f>
+        <v>39.151846456904195</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1">
+        <f>(-350*E15/110) + 350</f>
+        <v>225.42594309166847</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f>E21/E10</f>
+        <v>1.1803274779088939</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f>(E20*0.0070615518333333)*(E21*0.104719755)</f>
+        <v>6.5265686849622906</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f>E20*E14*A14</f>
+        <v>32.339425173402866</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f>E21/E14</f>
+        <v>191.03893482344787</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <f>(E21/E14)*2*PI()*A4/(60*12)</f>
+        <v>5.0013876182580264</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1">
-        <f>A14*E15*A18</f>
-        <v>16.177777777777777</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1">
-        <f>A15/E15</f>
-        <v>171</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1">
-        <f>(A15/E15)*2*PI()*A3/(60*12)</f>
-        <v>4.4767695313654547</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="E20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f>A14/(16*A16)</f>
-        <v>5.7777777777777777</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="1">
-        <f>(A21*A22/(16*A23*A24))/1000</f>
-        <v>0.69333333333333325</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>48</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1">
-        <f>A25/E21</f>
-        <v>21.634615384615387</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1">
-        <f>(A21*A22/(16*A26*A27))/1000</f>
-        <v>0.43333333333333329</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="1">
-        <f>A28/E23</f>
-        <v>34.61538461538462</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>15</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <f>E23/(A20*A10)</f>
+        <v>3.6258714916457175</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="E30" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f>E20/(16*A15)</f>
+        <v>2.4469904035565122</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1">
+        <f>(A31*A32/(16*A33*A34))/1000</f>
+        <v>0.29363884842678145</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1">
+        <f>A35/E31</f>
+        <v>51.083159058704162</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1">
+        <f>(A31*A32/(16*A36*A37))/1000</f>
+        <v>0.18352428026673839</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1">
+        <f>A38/E33</f>
+        <v>81.733054493926673</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>0.375</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="1">
-        <f>((A2/A4)*A32*A31*4/2)/(PI()*((A31/2)^4))/1000</f>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="1">
+        <f>((A3/A5)*A42*A41*4/2)/(PI()*((A41/2)^4))/1000</f>
         <v>16.096262886528478</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="1">
+        <f>(A43/E41)</f>
+        <v>2.4850488763747385</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="1">
-        <f>(A33/E31)</f>
-        <v>2.4850488763747385</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A30:C30"/>
     <mergeCell ref="E30:G30"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Analysis/Mechanical Analysis.xlsx
+++ b/Analysis/Mechanical Analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\Sid\Projects\Smart Cart\smart-cart\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk7363\Desktop\smart-cart\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +769,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -815,7 +815,7 @@
       </c>
       <c r="E6" s="1">
         <f>A6*(A3/3)*A4</f>
-        <v>20.000000000000004</v>
+        <v>26.666666666666671</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
@@ -836,7 +836,7 @@
       </c>
       <c r="E7" s="1">
         <f>A3*A4*(SIN(RADIANS(A9)) + (A8/32.2))/(A20*A5)</f>
-        <v>2.0212140733376791</v>
+        <v>2.6949520977835721</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="E8" s="2">
         <f>E7*16</f>
-        <v>32.339425173402866</v>
+        <v>43.119233564537154</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="E9" s="1">
         <f>A7*12/A4</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="E10" s="2">
         <f>(E9/(2*PI()))*60</f>
-        <v>190.98593171027443</v>
+        <v>143.23944878270581</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
@@ -943,7 +943,7 @@
       </c>
       <c r="E15" s="1">
         <f>E8/(E14*A14)</f>
-        <v>39.151846456904195</v>
+        <v>52.202461942538932</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="E16" s="1">
         <f>E10*E14</f>
-        <v>225.36339941812381</v>
+        <v>169.02254956359283</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -976,7 +976,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <f>(E15*0.0070615518333333)*(E16*0.104719755)</f>
-        <v>6.5247579103211795</v>
+        <v>6.5247579103211786</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="J17" s="1">
         <f>E21*18.75*64/60</f>
-        <v>4508.5188618333686</v>
+        <v>3678.025149111159</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>70</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E20" s="1">
         <f>E15</f>
-        <v>39.151846456904195</v>
+        <v>52.202461942538932</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E21" s="1">
         <f>(-350*E15/110) + 350</f>
-        <v>225.42594309166847</v>
+        <v>183.90125745555795</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1043,7 +1043,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <f>E21/E10</f>
-        <v>1.1803274779088939</v>
+        <v>1.2838729764629022</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>61</v>
@@ -1052,7 +1052,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
         <f>(E20*0.0070615518333333)*(E21*0.104719755)</f>
-        <v>6.5265686849622906</v>
+        <v>7.0991189483253549</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
@@ -1064,7 +1064,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
         <f>E20*E14*A14</f>
-        <v>32.339425173402866</v>
+        <v>43.119233564537154</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1076,7 +1076,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
         <f>E21/E14</f>
-        <v>191.03893482344787</v>
+        <v>155.848523267422</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1088,7 +1088,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E26" s="1">
         <f>(E21/E14)*2*PI()*A4/(60*12)</f>
-        <v>5.0013876182580264</v>
+        <v>5.4401397307750097</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
@@ -1100,7 +1100,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
         <f>E23/(A20*A10)</f>
-        <v>3.6258714916457175</v>
+        <v>1.9719774856459322</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>24</v>
@@ -1124,7 +1124,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>E20/(16*A15)</f>
-        <v>2.4469904035565122</v>
+        <v>3.2626538714086832</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="E31" s="1">
         <f>(A31*A32/(16*A33*A34))/1000</f>
-        <v>0.29363884842678145</v>
+        <v>0.39151846456904194</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>51</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="E32" s="1">
         <f>A35/E31</f>
-        <v>51.083159058704162</v>
+        <v>38.312369294028123</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>31</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="E33" s="1">
         <f>(A31*A32/(16*A36*A37))/1000</f>
-        <v>0.18352428026673839</v>
+        <v>0.24469904035565121</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>51</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="E34" s="1">
         <f>A38/E33</f>
-        <v>81.733054493926673</v>
+        <v>61.299790870444994</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>30</v>

--- a/Analysis/Mechanical Analysis.xlsx
+++ b/Analysis/Mechanical Analysis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk7363\Desktop\smart-cart\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurw\Sid\Projects\Smart Cart\smart-cart\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29A71CE0-3B61-4801-931A-5E488EC5258E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -200,9 +201,6 @@
     <t>Off-the-shelf wheel angular velocity</t>
   </si>
   <si>
-    <t>Target Motor Characteristics, Off-the-Shelf Gears</t>
-  </si>
-  <si>
     <t>Off-the-Shelf Gear Characteristics</t>
   </si>
   <si>
@@ -246,12 +244,15 @@
   </si>
   <si>
     <t>Gear ratio</t>
+  </si>
+  <si>
+    <t>Target Motor Characteristics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,20 +353,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7486650" y="4419602"/>
-          <a:ext cx="10419781" cy="3924298"/>
+          <a:off x="7686675" y="4244342"/>
+          <a:ext cx="10697911" cy="3771898"/>
           <a:chOff x="3762375" y="3616803"/>
           <a:chExt cx="10038781" cy="4012221"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2"/>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -388,7 +401,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 3"/>
+          <xdr:cNvPr id="4" name="Picture 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -411,7 +430,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Picture 4"/>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -700,41 +725,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -746,7 +771,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>50</v>
       </c>
@@ -767,7 +792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -788,12 +813,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1">
         <f>E4/A20</f>
@@ -806,7 +831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -824,7 +849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -845,7 +870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.25</v>
       </c>
@@ -864,7 +889,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.25</v>
       </c>
@@ -885,7 +910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -904,19 +929,19 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.7</v>
       </c>
@@ -928,10 +953,10 @@
         <v>1.18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -949,10 +974,10 @@
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1.18</v>
       </c>
@@ -973,7 +998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E17" s="1">
         <f>(E15*0.0070615518333333)*(E16*0.104719755)</f>
         <v>6.5247579103211786</v>
@@ -989,22 +1014,22 @@
         <v>3678.025149111159</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.3</v>
       </c>
@@ -1019,15 +1044,15 @@
         <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1">
         <f>(-350*E15/110) + 350</f>
@@ -1037,19 +1062,19 @@
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1">
         <f>E21/E10</f>
         <v>1.2838729764629022</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E23" s="1">
         <f>(E20*0.0070615518333333)*(E21*0.104719755)</f>
         <v>7.0991189483253549</v>
@@ -1058,10 +1083,10 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E24" s="1">
         <f>E20*E14*A14</f>
         <v>43.119233564537154</v>
@@ -1073,7 +1098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E25" s="1">
         <f>E21/E14</f>
         <v>155.848523267422</v>
@@ -1085,7 +1110,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E26" s="1">
         <f>(E21/E14)*2*PI()*A4/(60*12)</f>
         <v>5.4401397307750097</v>
@@ -1097,7 +1122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E27" s="1">
         <f>E23/(A20*A10)</f>
         <v>1.9719774856459322</v>
@@ -1106,10 +1131,10 @@
         <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1121,7 +1146,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f>E20/(16*A15)</f>
         <v>3.2626538714086832</v>
@@ -1143,7 +1168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>48</v>
       </c>
@@ -1158,7 +1183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.125</v>
       </c>
@@ -1179,7 +1204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.2</v>
       </c>
@@ -1194,7 +1219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>15</v>
       </c>
@@ -1205,7 +1230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0.125</v>
       </c>
@@ -1216,7 +1241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.32</v>
       </c>
@@ -1224,7 +1249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>15</v>
       </c>
@@ -1235,7 +1260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>18</v>
       </c>
@@ -1247,7 +1272,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0.375</v>
       </c>
@@ -1268,7 +1293,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -1286,7 +1311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>

--- a/Analysis/Mechanical Analysis.xlsx
+++ b/Analysis/Mechanical Analysis.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurw\Sid\Projects\Smart Cart\smart-cart\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk7363\smart-cart\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29A71CE0-3B61-4801-931A-5E488EC5258E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -252,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,8 +363,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7686675" y="4244342"/>
-          <a:ext cx="10697911" cy="3771898"/>
+          <a:off x="7486650" y="4419602"/>
+          <a:ext cx="10419781" cy="3924298"/>
           <a:chOff x="3762375" y="3616803"/>
           <a:chExt cx="10038781" cy="4012221"/>
         </a:xfrm>
@@ -725,29 +724,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" style="1"/>
-    <col min="10" max="10" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
@@ -759,7 +758,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -771,7 +770,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>50</v>
       </c>
@@ -792,7 +791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -813,7 +812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -831,7 +830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -849,7 +848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -870,7 +869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.25</v>
       </c>
@@ -889,7 +888,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.25</v>
       </c>
@@ -910,7 +909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -929,7 +928,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -941,7 +940,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.7</v>
       </c>
@@ -956,7 +955,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -977,7 +976,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1.18</v>
       </c>
@@ -998,7 +997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <f>(E15*0.0070615518333333)*(E16*0.104719755)</f>
         <v>6.5247579103211786</v>
@@ -1017,7 +1016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>67</v>
       </c>
@@ -1029,7 +1028,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.3</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <f>E21/E10</f>
         <v>1.2838729764629022</v>
@@ -1074,7 +1073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
         <f>(E20*0.0070615518333333)*(E21*0.104719755)</f>
         <v>7.0991189483253549</v>
@@ -1086,7 +1085,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
         <f>E20*E14*A14</f>
         <v>43.119233564537154</v>
@@ -1098,7 +1097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
         <f>E21/E14</f>
         <v>155.848523267422</v>
@@ -1110,7 +1109,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E26" s="1">
         <f>(E21/E14)*2*PI()*A4/(60*12)</f>
         <v>5.4401397307750097</v>
@@ -1122,7 +1121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
         <f>E23/(A20*A10)</f>
         <v>1.9719774856459322</v>
@@ -1134,7 +1133,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1145,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>E20/(16*A15)</f>
         <v>3.2626538714086832</v>
@@ -1168,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>48</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.125</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.2</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>15</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.125</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.32</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>15</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>18</v>
       </c>
@@ -1272,7 +1271,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.375</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>

--- a/Analysis/Mechanical Analysis.xlsx
+++ b/Analysis/Mechanical Analysis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk7363\smart-cart\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurw\Sid\Projects\Smart Cart\smart-cart\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D55737DE-5E0A-4D08-8BF0-266B0C669B0C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -251,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,8 +364,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7486650" y="4419602"/>
-          <a:ext cx="10419781" cy="3924298"/>
+          <a:off x="7686675" y="4244342"/>
+          <a:ext cx="10697911" cy="3771898"/>
           <a:chOff x="3762375" y="3616803"/>
           <a:chExt cx="10038781" cy="4012221"/>
         </a:xfrm>
@@ -724,29 +725,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
@@ -758,7 +759,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -770,9 +771,9 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -782,7 +783,7 @@
       </c>
       <c r="E3" s="1">
         <f>(E8*0.0070615518333333)*(E10*0.104719755)</f>
-        <v>4.5673305372248256</v>
+        <v>6.669722302938065</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -791,7 +792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -803,7 +804,7 @@
       </c>
       <c r="E4" s="1">
         <f>E3/A14</f>
-        <v>6.5247579103211795</v>
+        <v>9.5281747184829513</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -812,7 +813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -821,7 +822,7 @@
       </c>
       <c r="E5" s="1">
         <f>E4/A20</f>
-        <v>21.749193034403934</v>
+        <v>31.760582394943171</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -830,7 +831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -839,7 +840,7 @@
       </c>
       <c r="E6" s="1">
         <f>A6*(A3/3)*A4</f>
-        <v>26.666666666666671</v>
+        <v>13.333333333333336</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
@@ -848,7 +849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -860,7 +861,7 @@
       </c>
       <c r="E7" s="1">
         <f>A3*A4*(SIN(RADIANS(A9)) + (A8/32.2))/(A20*A5)</f>
-        <v>2.6949520977835721</v>
+        <v>3.9354677673182872</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
@@ -869,9 +870,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -881,14 +882,14 @@
       </c>
       <c r="E8" s="2">
         <f>E7*16</f>
-        <v>43.119233564537154</v>
+        <v>62.967484277092595</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.25</v>
       </c>
@@ -909,7 +910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -928,7 +929,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -940,7 +941,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.7</v>
       </c>
@@ -955,7 +956,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -967,7 +968,7 @@
       </c>
       <c r="E15" s="1">
         <f>E8/(E14*A14)</f>
-        <v>52.202461942538932</v>
+        <v>76.231821158707746</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -976,7 +977,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1.18</v>
       </c>
@@ -997,10 +998,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E17" s="1">
         <f>(E15*0.0070615518333333)*(E16*0.104719755)</f>
-        <v>6.5247579103211786</v>
+        <v>9.5281747184829513</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1010,13 +1011,13 @@
       </c>
       <c r="J17" s="1">
         <f>E21*18.75*64/60</f>
-        <v>3678.025149111159</v>
+        <v>2148.8841080822344</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>67</v>
       </c>
@@ -1028,7 +1029,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.3</v>
       </c>
@@ -1037,7 +1038,7 @@
       </c>
       <c r="E20" s="1">
         <f>E15</f>
-        <v>52.202461942538932</v>
+        <v>76.231821158707746</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1046,7 +1047,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -1055,7 +1056,7 @@
       </c>
       <c r="E21" s="1">
         <f>(-350*E15/110) + 350</f>
-        <v>183.90125745555795</v>
+        <v>107.44420540411173</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1064,19 +1065,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1">
         <f>E21/E10</f>
-        <v>1.2838729764629022</v>
+        <v>0.75010205859633372</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E23" s="1">
         <f>(E20*0.0070615518333333)*(E21*0.104719755)</f>
-        <v>7.0991189483253549</v>
+        <v>6.056867348304749</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
@@ -1085,10 +1086,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E24" s="1">
         <f>E20*E14*A14</f>
-        <v>43.119233564537154</v>
+        <v>62.967484277092595</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1097,10 +1098,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E25" s="1">
         <f>E21/E14</f>
-        <v>155.848523267422</v>
+        <v>91.054411359416719</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1109,10 +1110,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E26" s="1">
         <f>(E21/E14)*2*PI()*A4/(60*12)</f>
-        <v>5.4401397307750097</v>
+        <v>3.1783985533742953</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
@@ -1121,10 +1122,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E27" s="1">
         <f>E23/(A20*A10)</f>
-        <v>1.9719774856459322</v>
+        <v>1.6824631523068749</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>24</v>
@@ -1133,7 +1134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1145,10 +1146,10 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f>E20/(16*A15)</f>
-        <v>3.2626538714086832</v>
+        <v>4.7644888224192341</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -1158,7 +1159,7 @@
       </c>
       <c r="E31" s="1">
         <f>(A31*A32/(16*A33*A34))/1000</f>
-        <v>0.39151846456904194</v>
+        <v>0.57173865869030804</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>51</v>
@@ -1167,7 +1168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>48</v>
       </c>
@@ -1176,13 +1177,13 @@
       </c>
       <c r="E32" s="1">
         <f>A35/E31</f>
-        <v>38.312369294028123</v>
+        <v>26.235763092110595</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.125</v>
       </c>
@@ -1194,7 +1195,7 @@
       </c>
       <c r="E33" s="1">
         <f>(A31*A32/(16*A36*A37))/1000</f>
-        <v>0.24469904035565121</v>
+        <v>0.35733666168144251</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>51</v>
@@ -1203,7 +1204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.2</v>
       </c>
@@ -1212,13 +1213,13 @@
       </c>
       <c r="E34" s="1">
         <f>A38/E33</f>
-        <v>61.299790870444994</v>
+        <v>41.977220947376956</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>15</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0.125</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.32</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>15</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1272,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0.375</v>
       </c>
@@ -1283,7 +1284,7 @@
       </c>
       <c r="E41" s="1">
         <f>((A3/A5)*A42*A41*4/2)/(PI()*((A41/2)^4))/1000</f>
-        <v>16.096262886528478</v>
+        <v>8.0481314432642392</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>51</v>
@@ -1292,7 +1293,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -1304,13 +1305,13 @@
       </c>
       <c r="E42" s="1">
         <f>(A43/E41)</f>
-        <v>2.4850488763747385</v>
+        <v>4.970097752749477</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
